--- a/Excel Data/CaoCustomerCreation.xlsx
+++ b/Excel Data/CaoCustomerCreation.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>CustomerSegment</t>
   </si>
@@ -112,16 +113,35 @@
   </si>
   <si>
     <t>CM60005</t>
+  </si>
+  <si>
+    <t>txn</t>
+  </si>
+  <si>
+    <t>cellPhone</t>
+  </si>
+  <si>
+    <t>FatherName</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,9 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,4 +718,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>11241908</v>
+      </c>
+      <c r="B2">
+        <v>3124487764</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel Data/CaoCustomerCreation.xlsx
+++ b/Excel Data/CaoCustomerCreation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/CaoCustomerCreation.xlsx
+++ b/Excel Data/CaoCustomerCreation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>CustomerSegment</t>
   </si>
@@ -125,6 +125,201 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>CUS.CLASS</t>
+  </si>
+  <si>
+    <t>REL.MANAGER</t>
+  </si>
+  <si>
+    <t>CUS.TYPE.LC</t>
+  </si>
+  <si>
+    <t>NO.OF.EMP</t>
+  </si>
+  <si>
+    <t>NTN</t>
+  </si>
+  <si>
+    <t>INTRO.NO</t>
+  </si>
+  <si>
+    <t>REFFERED.BY</t>
+  </si>
+  <si>
+    <t>fieldName:NAME.2:1</t>
+  </si>
+  <si>
+    <t>SOLE.NAME</t>
+  </si>
+  <si>
+    <t>TOWN.COUNTRY:1</t>
+  </si>
+  <si>
+    <t>POST.CODE:1</t>
+  </si>
+  <si>
+    <t>CUST.OFF.PHONE:1</t>
+  </si>
+  <si>
+    <t>CUST.PHONE.NO:1</t>
+  </si>
+  <si>
+    <t>CUST.MOB.PHONE:1</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>RELATION.CODE:1</t>
+  </si>
+  <si>
+    <t>REL.CUSTOMER:1</t>
+  </si>
+  <si>
+    <t>OPEN.DATE</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>VISA.NO</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
+  </si>
+  <si>
+    <t>INCM.LEVELSRC</t>
+  </si>
+  <si>
+    <t>INTRO.ACC.NO</t>
+  </si>
+  <si>
+    <t>INTRO.MAINT.DAT</t>
+  </si>
+  <si>
+    <t>INTRO.NAME</t>
+  </si>
+  <si>
+    <t>INTRO.BNK.NAME:1</t>
+  </si>
+  <si>
+    <t>INTRO.BR.NAME:1</t>
+  </si>
+  <si>
+    <t>ITRO.ADD:1</t>
+  </si>
+  <si>
+    <t>INTRO.CON.NO</t>
+  </si>
+  <si>
+    <t>CP.NAME:1</t>
+  </si>
+  <si>
+    <t>CP.TITLE:1</t>
+  </si>
+  <si>
+    <t>CP.ADD:1</t>
+  </si>
+  <si>
+    <t>CP.ADD2:1</t>
+  </si>
+  <si>
+    <t>CP.PH.OFF:1</t>
+  </si>
+  <si>
+    <t>CP.FAX.NO:1</t>
+  </si>
+  <si>
+    <t>CP.CELL.NO:1</t>
+  </si>
+  <si>
+    <t>CP.PH.RES:1</t>
+  </si>
+  <si>
+    <t>MINOR.NAME</t>
+  </si>
+  <si>
+    <t>MINOR.ID.TYPE</t>
+  </si>
+  <si>
+    <t>MIN.ID.NO</t>
+  </si>
+  <si>
+    <t>P.ID.VALIDITY:1</t>
+  </si>
+  <si>
+    <t>GUARD.ADDRESS:1</t>
+  </si>
+  <si>
+    <t>MIN.FATH.NAME</t>
+  </si>
+  <si>
+    <t>GUARDIAN.DOB</t>
+  </si>
+  <si>
+    <t>GUARD.MOTH.MAID</t>
+  </si>
+  <si>
+    <t>GUARDIAN.MOBIL</t>
+  </si>
+  <si>
+    <t>GUARDIAN.EMAIL</t>
+  </si>
+  <si>
+    <t>FATCA.CLS.GUARD</t>
+  </si>
+  <si>
+    <t>FATCA.G.TIN</t>
+  </si>
+  <si>
+    <t>FAT.G.W8BEN.DT</t>
+  </si>
+  <si>
+    <t>FAT.G.W8ECI.DT</t>
+  </si>
+  <si>
+    <t>FAT.G.8233.DT</t>
+  </si>
+  <si>
+    <t>FAT.G.NONUS.DT</t>
+  </si>
+  <si>
+    <t>FAT.G.IDDOC.DT</t>
+  </si>
+  <si>
+    <t>PREM.EXIST.ACCT</t>
+  </si>
+  <si>
+    <t>BAF.PRM.REL.BAN</t>
+  </si>
+  <si>
+    <t>PREM.BRNCH.NAME</t>
+  </si>
+  <si>
+    <t>BAF.PRM.WED.DT</t>
+  </si>
+  <si>
+    <t>BAF.NAME.SPOUSE</t>
+  </si>
+  <si>
+    <t>BAF.SPOUSE.DOB</t>
+  </si>
+  <si>
+    <t>BAF.PRM.CHD.DOB:1</t>
+  </si>
+  <si>
+    <t>PRM.RM.CD</t>
+  </si>
+  <si>
+    <t>CRP.TYPE</t>
+  </si>
+  <si>
+    <t>SRC.FUNDS</t>
+  </si>
+  <si>
+    <t>TEXT:1</t>
   </si>
 </sst>
 </file>
@@ -451,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S4"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,21 +661,25 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="29" width="19.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,43 +702,229 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AI1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AJ1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AK1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AL1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AM1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
+      <c r="AP1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -561,44 +946,44 @@
       <c r="G2">
         <v>60000001200</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AD2" t="s">
         <v>19</v>
       </c>
-      <c r="L2">
+      <c r="AH2">
         <v>1001</v>
       </c>
-      <c r="M2">
+      <c r="AI2">
         <v>21</v>
       </c>
-      <c r="N2">
+      <c r="AJ2">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AK2" t="s">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="AL2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
         <v>1002</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AN2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AO2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -620,44 +1005,44 @@
       <c r="G3">
         <v>60000001200</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="AD3" t="s">
         <v>19</v>
       </c>
-      <c r="L3">
+      <c r="AH3">
         <v>1001</v>
       </c>
-      <c r="M3">
+      <c r="AI3">
         <v>21</v>
       </c>
-      <c r="N3">
+      <c r="AJ3">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AK3" t="s">
         <v>19</v>
       </c>
-      <c r="P3">
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
         <v>1002</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AN3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AO3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -679,40 +1064,40 @@
       <c r="G4">
         <v>60000001200</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AD4" t="s">
         <v>19</v>
       </c>
-      <c r="L4">
+      <c r="AH4">
         <v>1001</v>
       </c>
-      <c r="M4">
+      <c r="AI4">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="AJ4">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AK4" t="s">
         <v>19</v>
       </c>
-      <c r="P4">
+      <c r="AL4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
         <v>1002</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AN4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AO4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -724,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +1120,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -745,8 +1130,137 @@
       <c r="C1" t="s">
         <v>33</v>
       </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>11241908</v>
       </c>
